--- a/outputs/2025-05-20/cooccurrence_coordination_all_2025-05-20.xlsx
+++ b/outputs/2025-05-20/cooccurrence_coordination_all_2025-05-20.xlsx
@@ -20,7 +20,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,11 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -540,10 +544,8 @@
           <t>XOM</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4/29/2022</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>44680</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -617,10 +619,8 @@
           <t>NEE</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4/21/2021</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>44307</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -694,10 +694,8 @@
           <t>CAT</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1/28/2022</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>44589</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -761,7 +759,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>fuel cell, fuel cells, hydrogen</t>
+          <t>hydrogen, fuel cell, fuel cells</t>
         </is>
       </c>
     </row>
@@ -771,10 +769,8 @@
           <t>APD</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>8/9/2021</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>44417</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -838,7 +834,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>liquid hydrogen, hydrogen</t>
+          <t>hydrogen, liquid hydrogen</t>
         </is>
       </c>
     </row>
@@ -848,10 +844,8 @@
           <t>APD</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>7/23/2020</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>44035</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -927,10 +921,8 @@
           <t>SLB</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>4/21/2011</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>40654</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1004,10 +996,8 @@
           <t>CMI</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5/3/2022</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>44684</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1081,10 +1071,8 @@
           <t>VRSK</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2/23/2022</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>44615</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1148,7 +1136,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>carbon capture and storage, hydrogen</t>
+          <t>hydrogen, carbon capture and storage</t>
         </is>
       </c>
     </row>
@@ -1158,10 +1146,8 @@
           <t>BKR</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>4/20/2022</t>
-        </is>
+      <c r="B10" s="2" t="n">
+        <v>44671</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1235,10 +1221,8 @@
           <t>BKR</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>10/20/2021</t>
-        </is>
+      <c r="B11" s="2" t="n">
+        <v>44489</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1302,7 +1286,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>ccus, hydrogen</t>
+          <t>hydrogen, ccus</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1296,8 @@
           <t>BKR</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>4/21/2021</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>44307</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1379,7 +1361,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>ammonia, hydrogen</t>
+          <t>hydrogen, ammonia</t>
         </is>
       </c>
     </row>
@@ -1389,10 +1371,8 @@
           <t>ETR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>4/28/2021</t>
-        </is>
+      <c r="B13" s="2" t="n">
+        <v>44314</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1467,10 +1447,8 @@
           <t>ETR</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>4/28/2021</t>
-        </is>
+      <c r="B14" s="2" t="n">
+        <v>44314</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1545,10 +1523,8 @@
           <t>IR</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>11/3/2020</t>
-        </is>
+      <c r="B15" s="2" t="n">
+        <v>44138</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1622,10 +1598,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B16" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1699,10 +1673,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2/7/2018</t>
-        </is>
+      <c r="B17" s="2" t="n">
+        <v>43138</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1776,10 +1748,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2/7/2018</t>
-        </is>
+      <c r="B18" s="2" t="n">
+        <v>43138</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1853,10 +1823,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2/7/2018</t>
-        </is>
+      <c r="B19" s="2" t="n">
+        <v>43138</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1930,10 +1898,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2/7/2018</t>
-        </is>
+      <c r="B20" s="2" t="n">
+        <v>43138</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2007,10 +1973,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>11/21/2017</t>
-        </is>
+      <c r="B21" s="2" t="n">
+        <v>43060</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2084,10 +2048,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>8/5/2019</t>
-        </is>
+      <c r="B22" s="2" t="n">
+        <v>43682</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2161,10 +2123,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>5/7/2019</t>
-        </is>
+      <c r="B23" s="2" t="n">
+        <v>43592</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2234,10 +2194,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>5/7/2019</t>
-        </is>
+      <c r="B24" s="2" t="n">
+        <v>43592</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2311,10 +2269,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2/6/2019</t>
-        </is>
+      <c r="B25" s="2" t="n">
+        <v>43502</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2388,10 +2344,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>11/20/2018</t>
-        </is>
+      <c r="B26" s="2" t="n">
+        <v>43424</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2461,10 +2415,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>11/20/2018</t>
-        </is>
+      <c r="B27" s="2" t="n">
+        <v>43424</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2534,10 +2486,8 @@
           <t>FMC</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2/9/2011</t>
-        </is>
+      <c r="B28" s="2" t="n">
+        <v>40583</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2611,10 +2561,8 @@
           <t>PNW</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2/24/2017</t>
-        </is>
+      <c r="B29" s="2" t="n">
+        <v>42790</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2800,10 +2748,8 @@
           <t>XOM</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7/30/2021</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>44407</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2867,7 +2813,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>carbon capture and storage, hydrogen</t>
+          <t>hydrogen, carbon capture and storage</t>
         </is>
       </c>
     </row>
@@ -2877,10 +2823,8 @@
           <t>NEE</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4/21/2021</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>44307</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2954,10 +2898,8 @@
           <t>LIN</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2/5/2021</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>44232</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3019,7 +2961,7 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
-          <t>ammonia, hydrogen</t>
+          <t>hydrogen, ammonia</t>
         </is>
       </c>
     </row>
@@ -3029,10 +2971,8 @@
           <t>LIN</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2/5/2021</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>44232</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3093,7 +3033,7 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
-          <t>ammonia, hydrogen</t>
+          <t>hydrogen, ammonia</t>
         </is>
       </c>
     </row>
@@ -3103,10 +3043,8 @@
           <t>LIN</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>7/30/2020</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>44042</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3170,7 +3108,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>clean hydrogen, electrolysis, hydrogen</t>
+          <t>hydrogen, clean hydrogen, electrolysis</t>
         </is>
       </c>
     </row>
@@ -3180,10 +3118,8 @@
           <t>LIN</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>7/30/2020</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>44042</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3247,7 +3183,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>fuel cell, clean hydrogen, hydrogen</t>
+          <t>hydrogen, fuel cell, clean hydrogen</t>
         </is>
       </c>
     </row>
@@ -3257,10 +3193,8 @@
           <t>MDLZ</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>11/4/2010</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>40486</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3336,10 +3270,8 @@
           <t>APD</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8/9/2021</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>44417</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3403,7 +3335,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>liquid hydrogen, hydrogen</t>
+          <t>hydrogen, liquid hydrogen</t>
         </is>
       </c>
     </row>
@@ -3413,10 +3345,8 @@
           <t>APD</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8/9/2021</t>
-        </is>
+      <c r="B10" s="2" t="n">
+        <v>44417</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3480,7 +3410,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>liquid hydrogen, fuel cell, hydrogen</t>
+          <t>hydrogen, fuel cell, liquid hydrogen</t>
         </is>
       </c>
     </row>
@@ -3490,10 +3420,8 @@
           <t>APD</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>8/9/2021</t>
-        </is>
+      <c r="B11" s="2" t="n">
+        <v>44417</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3557,7 +3485,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>fuel cell, hydrogen</t>
+          <t>hydrogen, fuel cell</t>
         </is>
       </c>
     </row>
@@ -3567,10 +3495,8 @@
           <t>APD</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>8/9/2021</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>44417</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3634,7 +3560,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>fuel cell, hydrogen</t>
+          <t>hydrogen, fuel cell</t>
         </is>
       </c>
     </row>
@@ -3644,10 +3570,8 @@
           <t>SLB</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>4/21/2011</t>
-        </is>
+      <c r="B13" s="2" t="n">
+        <v>40654</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3721,10 +3645,8 @@
           <t>CDNS</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2/12/2020</t>
-        </is>
+      <c r="B14" s="2" t="n">
+        <v>43873</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -3794,10 +3716,8 @@
           <t>DLTR</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>5/27/2021</t>
-        </is>
+      <c r="B15" s="2" t="n">
+        <v>44343</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3871,10 +3791,8 @@
           <t>CMI</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>7/30/2019</t>
-        </is>
+      <c r="B16" s="2" t="n">
+        <v>43676</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -3948,10 +3866,8 @@
           <t>CMI</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>8/2/2022</t>
-        </is>
+      <c r="B17" s="2" t="n">
+        <v>44775</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -4015,7 +3931,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>fuel cell, hydrogen</t>
+          <t>hydrogen, fuel cell</t>
         </is>
       </c>
     </row>
@@ -4025,10 +3941,8 @@
           <t>CMI</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>5/3/2022</t>
-        </is>
+      <c r="B18" s="2" t="n">
+        <v>44684</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -4102,10 +4016,8 @@
           <t>CMI</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>11/2/2021</t>
-        </is>
+      <c r="B19" s="2" t="n">
+        <v>44502</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -4172,7 +4084,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>ammonia, green ammonia, green hydrogen, hydrogen</t>
+          <t>green hydrogen, hydrogen, green ammonia, ammonia</t>
         </is>
       </c>
     </row>
@@ -4182,10 +4094,8 @@
           <t>DD</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>4/26/2012</t>
-        </is>
+      <c r="B20" s="2" t="n">
+        <v>41025</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -4259,10 +4169,8 @@
           <t>BKR</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>4/20/2022</t>
-        </is>
+      <c r="B21" s="2" t="n">
+        <v>44671</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -4336,10 +4244,8 @@
           <t>BKR</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>10/20/2021</t>
-        </is>
+      <c r="B22" s="2" t="n">
+        <v>44489</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -4403,7 +4309,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>ccus, hydrogen</t>
+          <t>hydrogen, ccus</t>
         </is>
       </c>
     </row>
@@ -4413,10 +4319,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2/18/2011</t>
-        </is>
+      <c r="B23" s="2" t="n">
+        <v>40592</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -4490,10 +4394,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2/18/2011</t>
-        </is>
+      <c r="B24" s="2" t="n">
+        <v>40592</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -4567,10 +4469,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>11/5/2010</t>
-        </is>
+      <c r="B25" s="2" t="n">
+        <v>40487</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -4634,7 +4534,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>ammonia production, ammonia</t>
+          <t>ammonia, ammonia production</t>
         </is>
       </c>
     </row>
@@ -4644,10 +4544,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>11/5/2010</t>
-        </is>
+      <c r="B26" s="2" t="n">
+        <v>40487</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -4721,10 +4619,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>11/5/2010</t>
-        </is>
+      <c r="B27" s="2" t="n">
+        <v>40487</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4799,10 +4695,8 @@
           <t>ABC</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>10/29/2015</t>
-        </is>
+      <c r="B28" s="2" t="n">
+        <v>42306</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4872,10 +4766,8 @@
           <t>LH</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2/16/2017</t>
-        </is>
+      <c r="B29" s="2" t="n">
+        <v>42782</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4949,10 +4841,8 @@
           <t>MOS</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>8/2/2022</t>
-        </is>
+      <c r="B30" s="2" t="n">
+        <v>44775</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -5026,10 +4916,8 @@
           <t>IR</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2/23/2021</t>
-        </is>
+      <c r="B31" s="2" t="n">
+        <v>44250</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -5103,10 +4991,8 @@
           <t>IR</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>11/3/2020</t>
-        </is>
+      <c r="B32" s="2" t="n">
+        <v>44138</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -5180,10 +5066,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>8/6/2018</t>
-        </is>
+      <c r="B33" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -5257,10 +5141,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>8/6/2018</t>
-        </is>
+      <c r="B34" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -5334,10 +5216,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>8/6/2018</t>
-        </is>
+      <c r="B35" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5412,10 +5292,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>8/6/2018</t>
-        </is>
+      <c r="B36" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -5489,10 +5367,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>8/6/2018</t>
-        </is>
+      <c r="B37" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -5566,10 +5442,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>8/6/2018</t>
-        </is>
+      <c r="B38" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5643,10 +5517,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>8/6/2018</t>
-        </is>
+      <c r="B39" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5720,10 +5592,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B40" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5797,10 +5667,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B41" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5874,10 +5742,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B42" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5951,10 +5817,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B43" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -6024,10 +5888,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B44" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -6101,10 +5963,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B45" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6180,10 +6040,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B46" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6258,10 +6116,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2/7/2018</t>
-        </is>
+      <c r="B47" s="2" t="n">
+        <v>43138</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6335,10 +6191,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2/7/2018</t>
-        </is>
+      <c r="B48" s="2" t="n">
+        <v>43138</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6412,10 +6266,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2/7/2018</t>
-        </is>
+      <c r="B49" s="2" t="n">
+        <v>43138</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6489,10 +6341,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2/7/2018</t>
-        </is>
+      <c r="B50" s="2" t="n">
+        <v>43138</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6562,10 +6412,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2/7/2018</t>
-        </is>
+      <c r="B51" s="2" t="n">
+        <v>43138</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6635,10 +6483,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>11/21/2017</t>
-        </is>
+      <c r="B52" s="2" t="n">
+        <v>43060</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6714,10 +6560,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>11/21/2017</t>
-        </is>
+      <c r="B53" s="2" t="n">
+        <v>43060</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6792,10 +6636,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>7/29/2014</t>
-        </is>
+      <c r="B54" s="2" t="n">
+        <v>41849</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6869,10 +6711,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>8/1/2022</t>
-        </is>
+      <c r="B55" s="2" t="n">
+        <v>44774</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6947,10 +6787,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>8/5/2019</t>
-        </is>
+      <c r="B56" s="2" t="n">
+        <v>43682</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7024,10 +6862,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>5/7/2019</t>
-        </is>
+      <c r="B57" s="2" t="n">
+        <v>43592</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7097,10 +6933,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2/6/2019</t>
-        </is>
+      <c r="B58" s="2" t="n">
+        <v>43502</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7174,10 +7008,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2/6/2019</t>
-        </is>
+      <c r="B59" s="2" t="n">
+        <v>43502</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7251,10 +7083,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>11/20/2018</t>
-        </is>
+      <c r="B60" s="2" t="n">
+        <v>43424</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7328,10 +7158,8 @@
           <t>FMC</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2/9/2011</t>
-        </is>
+      <c r="B61" s="2" t="n">
+        <v>40583</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7405,10 +7233,8 @@
           <t>CE</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>4/23/2019</t>
-        </is>
+      <c r="B62" s="2" t="n">
+        <v>43578</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7484,10 +7310,8 @@
           <t>QRVO</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>10/28/2010</t>
-        </is>
+      <c r="B63" s="2" t="n">
+        <v>40479</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7561,10 +7385,8 @@
           <t>BWA</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2/15/2022</t>
-        </is>
+      <c r="B64" s="2" t="n">
+        <v>44607</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7638,10 +7460,8 @@
           <t>PNW</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2/24/2017</t>
-        </is>
+      <c r="B65" s="2" t="n">
+        <v>42790</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7827,10 +7647,8 @@
           <t>XOM</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7/30/2021</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>44407</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -7894,7 +7712,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>carbon capture and storage, hydrogen</t>
+          <t>hydrogen, carbon capture and storage</t>
         </is>
       </c>
     </row>
@@ -7904,10 +7722,8 @@
           <t>SO</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10/30/2013</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>41577</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -7983,10 +7799,8 @@
           <t>ADSK</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2/24/2011</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>40598</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -8061,10 +7875,8 @@
           <t>VRSK</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2/23/2022</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>44615</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -8128,7 +7940,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>carbon capture and storage, hydrogen</t>
+          <t>hydrogen, carbon capture and storage</t>
         </is>
       </c>
     </row>
@@ -8138,10 +7950,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2/16/2012</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>40955</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -8216,10 +8026,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2/18/2011</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>40592</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -8293,10 +8101,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2/18/2011</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>40592</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -8370,10 +8176,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>11/5/2010</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>40487</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -8437,7 +8241,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>ammonia production, ammonia</t>
+          <t>ammonia, ammonia production</t>
         </is>
       </c>
     </row>
@@ -8447,10 +8251,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>11/5/2010</t>
-        </is>
+      <c r="B10" s="2" t="n">
+        <v>40487</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -8525,10 +8327,8 @@
           <t>ABC</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>10/29/2015</t>
-        </is>
+      <c r="B11" s="2" t="n">
+        <v>42306</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -8598,10 +8398,8 @@
           <t>LH</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2/16/2017</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>42782</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -8675,10 +8473,8 @@
           <t>IR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>11/3/2020</t>
-        </is>
+      <c r="B13" s="2" t="n">
+        <v>44138</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -8752,10 +8548,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>8/6/2018</t>
-        </is>
+      <c r="B14" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -8829,10 +8623,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>8/6/2018</t>
-        </is>
+      <c r="B15" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -8906,10 +8698,8 @@
           <t>FMC</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2/9/2011</t>
-        </is>
+      <c r="B16" s="2" t="n">
+        <v>40583</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -8983,10 +8773,8 @@
           <t>CE</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1/29/2019</t>
-        </is>
+      <c r="B17" s="2" t="n">
+        <v>43494</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -9174,10 +8962,8 @@
           <t>LIN</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2/5/2021</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>44232</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -9239,7 +9025,7 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>ammonia, hydrogen</t>
+          <t>hydrogen, ammonia</t>
         </is>
       </c>
     </row>
@@ -9249,10 +9035,8 @@
           <t>LIN</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2/5/2021</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>44232</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -9313,7 +9097,7 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
-          <t>ammonia, hydrogen</t>
+          <t>hydrogen, ammonia</t>
         </is>
       </c>
     </row>
@@ -9439,10 +9223,8 @@
           <t>JPM</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7/13/2012</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>41103</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -9516,10 +9298,8 @@
           <t>VRSK</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2/23/2022</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>44615</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -9583,7 +9363,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>carbon capture and storage, hydrogen</t>
+          <t>hydrogen, carbon capture and storage</t>
         </is>
       </c>
     </row>
@@ -9593,10 +9373,8 @@
           <t>BKR</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4/20/2022</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>44671</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -9670,10 +9448,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2/18/2011</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>40592</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -9747,10 +9523,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2/18/2011</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>40592</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -9824,10 +9598,8 @@
           <t>VMC</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>4/30/2018</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>43220</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -9897,10 +9669,8 @@
           <t>IR</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>11/3/2020</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>44138</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -9974,10 +9744,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8/6/2018</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -10051,10 +9819,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8/6/2018</t>
-        </is>
+      <c r="B10" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -10128,10 +9894,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>8/6/2018</t>
-        </is>
+      <c r="B11" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -10201,10 +9965,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -10278,10 +10040,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B13" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -10351,10 +10111,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B14" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -10428,10 +10186,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B15" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -10505,10 +10261,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>5/8/2018</t>
-        </is>
+      <c r="B16" s="2" t="n">
+        <v>43228</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -10582,10 +10336,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2/7/2018</t>
-        </is>
+      <c r="B17" s="2" t="n">
+        <v>43138</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -10655,10 +10407,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2/7/2018</t>
-        </is>
+      <c r="B18" s="2" t="n">
+        <v>43138</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -10732,10 +10482,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>11/21/2017</t>
-        </is>
+      <c r="B19" s="2" t="n">
+        <v>43060</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -10809,10 +10557,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>11/21/2017</t>
-        </is>
+      <c r="B20" s="2" t="n">
+        <v>43060</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -10886,10 +10632,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>11/21/2017</t>
-        </is>
+      <c r="B21" s="2" t="n">
+        <v>43060</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -10963,10 +10707,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>11/21/2017</t>
-        </is>
+      <c r="B22" s="2" t="n">
+        <v>43060</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -11040,10 +10782,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>11/21/2017</t>
-        </is>
+      <c r="B23" s="2" t="n">
+        <v>43060</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -11113,10 +10853,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>11/21/2017</t>
-        </is>
+      <c r="B24" s="2" t="n">
+        <v>43060</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -11186,10 +10924,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>11/21/2017</t>
-        </is>
+      <c r="B25" s="2" t="n">
+        <v>43060</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -11265,10 +11001,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>8/8/2017</t>
-        </is>
+      <c r="B26" s="2" t="n">
+        <v>42955</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -11342,10 +11076,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>11/20/2018</t>
-        </is>
+      <c r="B27" s="2" t="n">
+        <v>43424</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -11419,10 +11151,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>11/20/2018</t>
-        </is>
+      <c r="B28" s="2" t="n">
+        <v>43424</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -11496,10 +11226,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>11/20/2018</t>
-        </is>
+      <c r="B29" s="2" t="n">
+        <v>43424</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -11573,10 +11301,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>11/20/2018</t>
-        </is>
+      <c r="B30" s="2" t="n">
+        <v>43424</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -11646,10 +11372,8 @@
           <t>J</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>11/20/2018</t>
-        </is>
+      <c r="B31" s="2" t="n">
+        <v>43424</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -11719,10 +11443,8 @@
           <t>QRVO</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>10/28/2010</t>
-        </is>
+      <c r="B32" s="2" t="n">
+        <v>40479</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
